--- a/web-app/fieldsheets/AATAMS Field Sheets.xlsx
+++ b/web-app/fieldsheets/AATAMS Field Sheets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="16275" windowHeight="7695" tabRatio="723" firstSheet="2" activeTab="2"/>
@@ -11,15 +11,14 @@
     <sheet name="Receiver recovery and download " sheetId="2" r:id="rId2"/>
     <sheet name="Lost Receiver" sheetId="3" r:id="rId3"/>
     <sheet name="Tag deployment" sheetId="4" r:id="rId4"/>
-    <sheet name="Deployment sheet blank" sheetId="6" r:id="rId5"/>
-    <sheet name="Recovery Sheet Blank" sheetId="7" r:id="rId6"/>
+    <sheet name="Recovery and deployment" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="135">
   <si>
     <t>Receiver Deployment log sheet</t>
   </si>
@@ -384,23 +383,57 @@
     <t>Accoustic release id</t>
   </si>
   <si>
-    <t>mini log attached .................</t>
-  </si>
-  <si>
-    <t>Bondi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
+    <t>Deep Water</t>
+  </si>
+  <si>
+    <t>Diver 1</t>
+  </si>
+  <si>
+    <t>Diver 2</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Receiver Recovery and Deployment log sheet</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Bondi Line</t>
+  </si>
+  <si>
+    <t>BL 21</t>
+  </si>
+  <si>
+    <t>131.0 m</t>
+  </si>
+  <si>
+    <t>WGSM84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,20 +482,28 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Geneva"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +514,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -602,12 +643,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -675,6 +778,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,6 +1631,61 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2147888</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="R:\AATAMS\imos press pics\8_Tuna_small.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10230851">
+          <a:off x="4152901" y="3657600"/>
+          <a:ext cx="2071687" cy="1163638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1759,6 +1954,61 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="R:\AATAMS\imos press pics\8_Tuna_small.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6629400" y="1143000"/>
+          <a:ext cx="2071687" cy="1163638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1767,15 +2017,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1786,8 +2036,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="38100" y="0"/>
-          <a:ext cx="7620000" cy="1028700"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="4857750" cy="1143000"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5760" cy="935"/>
         </a:xfrm>
@@ -1837,8 +2087,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="1022" y="35"/>
-            <a:ext cx="4738" cy="717"/>
+            <a:off x="1018" y="32"/>
+            <a:ext cx="4742" cy="725"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2027,272 +2277,59 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>264114</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1004887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>58738</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="R:\AATAMS\imos press pics\8_Tuna_small.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="47625"/>
-          <a:ext cx="8248650" cy="1104900"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="5760" cy="935"/>
+          <a:off x="5064714" y="76200"/>
+          <a:ext cx="1664698" cy="935038"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectangle 2"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="5760" cy="754"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:gradFill rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:srgbClr val="2B5681">
-                  <a:alpha val="24001"/>
-                </a:srgbClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="0" scaled="1"/>
-          </a:gradFill>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 3"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="1018" y="32"/>
-            <a:ext cx="4742" cy="725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-          <a:effectLst/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-AU" sz="2800" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="2B5681"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>AATAMS project data management by eMII</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="2800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 4"/>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="754"/>
-            <a:ext cx="5760" cy="181"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="2B5681"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5" descr="IMOS_vertical"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="0" y="73"/>
-            <a:ext cx="1020" cy="524"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:noFill/>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2591,19 +2628,19 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="48.75" customHeight="1">
+    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -2617,7 +2654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -2626,7 +2663,7 @@
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75">
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2640,7 +2677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2654,7 +2691,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -2662,7 +2699,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -2670,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75">
+    <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -2678,7 +2715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2686,7 +2723,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -2694,7 +2731,7 @@
         <v>-25.631450000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2739,7 @@
         <v>148.36572000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75">
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
@@ -2710,7 +2747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75">
+    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2755,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75">
+    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2726,7 +2763,7 @@
         <v>40466</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75">
+    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2734,7 +2771,7 @@
         <v>0.52430555555555558</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75">
+    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -2742,7 +2779,7 @@
         <v>40466</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75">
+    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2750,7 +2787,7 @@
         <v>0.1076388888888889</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75">
+    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2761,7 +2798,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -2769,7 +2806,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -2777,7 +2814,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -2785,7 +2822,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -2809,7 +2846,7 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
@@ -2819,12 +2856,12 @@
     <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:5" ht="28.5">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
@@ -2838,7 +2875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>2</v>
       </c>
@@ -2846,7 +2883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>53</v>
       </c>
@@ -2854,7 +2891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>120</v>
       </c>
@@ -2862,7 +2899,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>7</v>
       </c>
@@ -2870,7 +2907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
@@ -2878,7 +2915,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -2886,7 +2923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>118</v>
       </c>
@@ -2900,7 +2937,7 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>119</v>
       </c>
@@ -2914,7 +2951,7 @@
         <v>0.46180555555555558</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -2928,7 +2965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>43</v>
       </c>
@@ -2942,7 +2979,7 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -2956,7 +2993,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>117</v>
       </c>
@@ -2970,7 +3007,7 @@
         <v>0.22291666666666665</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -2984,7 +3021,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>113</v>
       </c>
@@ -2992,7 +3029,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>114</v>
       </c>
@@ -3000,7 +3037,7 @@
         <v>12457</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>115</v>
       </c>
@@ -3008,7 +3045,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>116</v>
       </c>
@@ -3016,12 +3053,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75">
+    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>33</v>
       </c>
@@ -3031,7 +3068,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="22"/>
@@ -3039,7 +3076,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="25"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="22"/>
@@ -3047,7 +3084,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="23"/>
@@ -3068,10 +3105,10 @@
   <dimension ref="A8:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
@@ -3080,13 +3117,13 @@
     <col min="5" max="5" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:7" ht="23.25">
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="31"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="28" t="s">
         <v>44</v>
       </c>
@@ -3095,7 +3132,7 @@
       </c>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
@@ -3103,7 +3140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>2</v>
       </c>
@@ -3114,7 +3151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>53</v>
       </c>
@@ -3122,7 +3159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>54</v>
       </c>
@@ -3138,7 +3175,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>5</v>
       </c>
@@ -3154,7 +3191,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>39</v>
       </c>
@@ -3170,7 +3207,7 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>55</v>
       </c>
@@ -3184,7 +3221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -3198,7 +3235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>40</v>
       </c>
@@ -3206,7 +3243,7 @@
         <v>27.325469999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>56</v>
       </c>
@@ -3214,7 +3251,7 @@
         <v>-129.26546999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +3259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>11</v>
       </c>
@@ -3230,7 +3267,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>42</v>
       </c>
@@ -3238,7 +3275,7 @@
         <v>40295</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>43</v>
       </c>
@@ -3246,7 +3283,7 @@
         <v>0.50347222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>14</v>
       </c>
@@ -3254,7 +3291,7 @@
         <v>40295</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
@@ -3262,7 +3299,7 @@
         <v>8.6805555555555566E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>24</v>
       </c>
@@ -3274,7 +3311,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="21" t="s">
         <v>57</v>
@@ -3286,7 +3323,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="22"/>
       <c r="C29" s="13"/>
@@ -3296,7 +3333,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="22"/>
       <c r="C30" s="13"/>
@@ -3306,7 +3343,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="23"/>
       <c r="C31" s="16"/>
@@ -3326,11 +3363,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
@@ -3338,12 +3375,12 @@
     <col min="6" max="6" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:7" ht="21">
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -3352,7 +3389,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -3367,7 +3404,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -3382,7 +3419,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -3397,7 +3434,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -3412,7 +3449,7 @@
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -3426,7 +3463,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -3440,7 +3477,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -3454,7 +3491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -3468,7 +3505,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>75</v>
       </c>
@@ -3476,7 +3513,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>91</v>
       </c>
@@ -3484,7 +3521,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75">
+    <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>76</v>
       </c>
@@ -3492,7 +3529,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -3506,7 +3543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -3520,7 +3557,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -3534,7 +3571,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -3548,7 +3585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -3556,7 +3593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3564,7 +3601,7 @@
         <v>40477</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3572,7 +3609,7 @@
         <v>0.50347222222222221</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3580,7 +3617,7 @@
         <v>40477</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -3598,398 +3635,390 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:H28"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="21">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18.75">
-      <c r="A7" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="43"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
+      <c r="B9" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75">
-      <c r="A9" s="2" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75">
-      <c r="A10" s="2" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="37">
+        <v>120742</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75">
-      <c r="A11" s="2" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="37">
+        <v>3858</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75">
-      <c r="A12" s="2" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="18.75">
-      <c r="A13" s="2" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75">
-      <c r="A14" s="2" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="45">
+        <v>33.983820000000001</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75">
-      <c r="A15" s="2" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="37">
+        <v>151.43389999999999</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="18.75">
-      <c r="A16" s="2" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75">
-      <c r="A17" s="2" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.75">
-      <c r="A18" s="2" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75">
-      <c r="A20" s="2" t="s">
+      <c r="F21" s="35"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75">
-      <c r="A21" s="2" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.75">
-      <c r="A22" s="2" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="57"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:F32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="1:5" ht="28.5">
-      <c r="A7" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="E20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="E22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="E23" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="E24" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="E26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="E27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="18.75">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="26"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>